--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-races-count.xlsx
@@ -59,7 +59,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>216 ч. 8 мин. 54 сек.</t>
+    <t>216 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -68,7 +68,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>226 ч. 43 мин. 4 сек.</t>
+    <t>226 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -104,7 +104,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>100 ч. 7 мин. 54 сек.</t>
+    <t>100 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -131,7 +131,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>146 ч. 3 мин. 19 сек.</t>
+    <t>146 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>vitaha</t>
   </si>
   <si>
-    <t>72 ч. 55 мин. 6 сек.</t>
+    <t>72 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -167,7 +167,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 22 сек.</t>
+    <t>37 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -293,7 +293,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 34 сек.</t>
+    <t>36 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -320,7 +320,7 @@
     <t>Botin</t>
   </si>
   <si>
-    <t>36 ч. 42 мин. 2 сек.</t>
+    <t>36 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -347,7 +347,7 @@
     <t>Erzhanov</t>
   </si>
   <si>
-    <t>35 ч. 22 мин. 5 сек.</t>
+    <t>35 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -365,7 +365,7 @@
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 22 сек.</t>
+    <t>28 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -410,7 +410,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>28 ч. 9 мин. 34 сек.</t>
+    <t>28 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -419,7 +419,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>19 ч. 28 мин. 3 сек.</t>
+    <t>19 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -446,7 +446,7 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>35 ч. 23 мин. 9 сек.</t>
+    <t>35 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -455,7 +455,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>26 ч. 5 мин. 19 сек.</t>
+    <t>26 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -464,7 +464,7 @@
     <t>Радончег</t>
   </si>
   <si>
-    <t>22 ч. 21 мин. 5 сек.</t>
+    <t>22 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -473,7 +473,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 35 сек.</t>
+    <t>27 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>49</t>
@@ -482,7 +482,7 @@
     <t>llllllllllllll</t>
   </si>
   <si>
-    <t>27 ч. 47 мин. 4 сек.</t>
+    <t>27 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -545,7 +545,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 5 сек.</t>
+    <t>26 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -563,7 +563,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>23 ч. 56 мин. 9 сек.</t>
+    <t>23 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -572,7 +572,7 @@
     <t>PROFI</t>
   </si>
   <si>
-    <t>20 ч. 34 мин. 0 сек.</t>
+    <t>20 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -608,7 +608,7 @@
     <t>L_I_R_A</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 19 сек.</t>
+    <t>22 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -617,7 +617,7 @@
     <t>docomo68k</t>
   </si>
   <si>
-    <t>21 ч. 1 мин. 52 сек.</t>
+    <t>21 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -635,7 +635,7 @@
     <t>4u6uc</t>
   </si>
   <si>
-    <t>34 ч. 1 мин. 40 сек.</t>
+    <t>34 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -680,7 +680,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 8 сек.</t>
+    <t>23 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -698,7 +698,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 20 сек.</t>
+    <t>17 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -716,7 +716,7 @@
     <t>KyKyzya</t>
   </si>
   <si>
-    <t>26 ч. 38 мин. 5 сек.</t>
+    <t>26 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -752,7 +752,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 2 сек.</t>
+    <t>15 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>80–81</t>
@@ -866,7 +866,7 @@
     <t>Florance</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 8 сек.</t>
+    <t>15 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -902,7 +902,7 @@
     <t>Solitaire</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 0 сек.</t>
+    <t>11 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>97</t>
@@ -911,7 +911,7 @@
     <t>dubrav</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 17 сек.</t>
+    <t>19 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -962,7 +962,7 @@
     <t>s3erios</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 36 сек.</t>
+    <t>16 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -980,7 +980,7 @@
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>16 ч. 32 мин. 3 сек.</t>
+    <t>16 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>106</t>
@@ -1052,7 +1052,7 @@
     <t>natik1977</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 13 сек.</t>
+    <t>14 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1061,7 +1061,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 39 сек.</t>
+    <t>11 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1079,7 +1079,7 @@
     <t>клавмен</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 49 сек.</t>
+    <t>15 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1097,7 +1097,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 35 мин. 7 сек.</t>
+    <t>10 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1115,7 +1115,7 @@
     <t>моном</t>
   </si>
   <si>
-    <t>14 ч. 40 мин. 0 сек.</t>
+    <t>14 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1124,7 +1124,7 @@
     <t>DVRazor</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 25 сек.</t>
+    <t>11 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1160,7 +1160,7 @@
     <t>Yada</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 41 сек.</t>
+    <t>7 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1226,7 +1226,7 @@
     <t>kpasten</t>
   </si>
   <si>
-    <t>9 ч. 59 мин. 7 сек.</t>
+    <t>9 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1235,7 +1235,7 @@
     <t>exdark</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 23 сек.</t>
+    <t>11 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1244,7 +1244,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 52 мин. 0 сек.</t>
+    <t>11 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>136–138</t>
@@ -1259,13 +1259,13 @@
     <t>selsa</t>
   </si>
   <si>
-    <t>14 ч. 38 мин. 1 сек.</t>
+    <t>14 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 10 мин. 3 сек.</t>
+    <t>15 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1292,7 +1292,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 34 сек.</t>
+    <t>15 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1319,7 +1319,7 @@
     <t>MD2044</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 9 сек.</t>
+    <t>11 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1328,7 +1328,7 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 5 сек.</t>
+    <t>9 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1442,7 +1442,7 @@
     <t>timelimit</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 48 сек.</t>
+    <t>12 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1451,7 +1451,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 23 сек.</t>
+    <t>9 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>160–161</t>
@@ -1481,7 +1481,7 @@
     <t>непонятно</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 25 сек.</t>
+    <t>11 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1526,13 +1526,13 @@
     <t>speederman</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 0 сек.</t>
+    <t>8 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>udezich</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 43 сек.</t>
+    <t>6 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>паукан</t>
@@ -1547,7 +1547,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 11 сек.</t>
+    <t>10 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1571,7 +1571,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 3 сек.</t>
+    <t>5 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>175</t>
@@ -1625,7 +1625,7 @@
     <t>Турбозавр</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 47 сек.</t>
+    <t>8 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1634,7 +1634,7 @@
     <t>bot1</t>
   </si>
   <si>
-    <t>12 ч. 21 мин. 7 сек.</t>
+    <t>12 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1652,7 +1652,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 56 сек.</t>
+    <t>7 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1661,7 +1661,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 6 сек.</t>
+    <t>13 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1715,13 +1715,13 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 0 сек.</t>
+    <t>11 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>EkonomiSSSt</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 9 сек.</t>
+    <t>7 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>fedyagor</t>
@@ -1736,7 +1736,7 @@
     <t>Skao</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>194–195</t>
@@ -1745,7 +1745,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 51 сек.</t>
+    <t>12 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>Командир</t>
@@ -1802,7 +1802,7 @@
     <t>Sauvage</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 48 сек.</t>
+    <t>11 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -1838,7 +1838,7 @@
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>8 ч. 31 мин. 7 сек.</t>
+    <t>8 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>v2d</t>
@@ -1916,7 +1916,7 @@
     <t>Интегрируемый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 23 сек.</t>
+    <t>7 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1925,7 +1925,7 @@
     <t>Razorage</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 8 сек.</t>
+    <t>5 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1952,7 +1952,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 2 сек.</t>
+    <t>9 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>задумчивый</t>
@@ -1976,7 +1976,7 @@
     <t>vitalik_13</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 9 сек.</t>
+    <t>11 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>222–223</t>
@@ -1985,7 +1985,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 1 сек.</t>
+    <t>15 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>dr_alexey</t>
@@ -2039,7 +2039,7 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>7 ч. 22 мин. 2 сек.</t>
+    <t>7 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>230</t>
@@ -2048,7 +2048,7 @@
     <t>kateruna</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 10 сек.</t>
+    <t>8 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2084,7 +2084,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 46 сек.</t>
+    <t>8 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>xks</t>
@@ -2099,7 +2099,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 16 сек.</t>
+    <t>7 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>Drumerspb</t>
@@ -2165,7 +2165,7 @@
     <t>MONZA</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 42 сек.</t>
+    <t>12 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>245–246</t>
@@ -2174,7 +2174,7 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>9 ч. 29 мин. 8 сек.</t>
+    <t>9 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>_Nicole_</t>
@@ -2246,7 +2246,7 @@
     <t>Nasten-a</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 3 сек.</t>
+    <t>4 ч. 31 мин. 03 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2255,7 +2255,7 @@
     <t>tararamspb</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 25 сек.</t>
+    <t>5 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>256–258</t>
@@ -2270,7 +2270,7 @@
     <t>Ismail-06</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>Егорт</t>
@@ -2294,7 +2294,7 @@
     <t>Инж</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 2 сек.</t>
+    <t>5 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2312,7 +2312,7 @@
     <t>DAVA</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>263–265</t>
@@ -2321,7 +2321,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 5 сек.</t>
+    <t>5 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>rovno</t>
@@ -2342,7 +2342,7 @@
     <t>Lee11</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 43 сек.</t>
+    <t>8 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2384,7 +2384,7 @@
     <t>spiderokk</t>
   </si>
   <si>
-    <t>7 ч. 11 мин. 2 сек.</t>
+    <t>7 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>272–274</t>
@@ -2441,13 +2441,13 @@
     <t>Аэрограф</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 3 сек.</t>
+    <t>5 ч. 05 мин. 03 сек.</t>
   </si>
   <si>
     <t>Мимо_проходил</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 0 сек.</t>
+    <t>7 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2474,7 +2474,7 @@
     <t>msmarpl</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>283–284</t>
@@ -2489,7 +2489,7 @@
     <t>Faleron</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 9 сек.</t>
+    <t>3 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>285–286</t>
@@ -2498,7 +2498,7 @@
     <t>Дмитрий123456</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 9 сек.</t>
+    <t>5 ч. 43 мин. 09 сек.</t>
   </si>
   <si>
     <t>sasha77</t>
@@ -2513,7 +2513,7 @@
     <t>monya2205</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 45 сек.</t>
+    <t>5 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2561,7 +2561,7 @@
     <t>RainbowMan</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 2 сек.</t>
+    <t>3 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2570,7 +2570,7 @@
     <t>Валацуга</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 2 сек.</t>
+    <t>3 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>295–296</t>
@@ -2699,7 +2699,7 @@
     <t>denisdv</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>311</t>
@@ -2708,7 +2708,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 3 сек.</t>
+    <t>8 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>312–313</t>
@@ -2732,7 +2732,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>315–316</t>
@@ -2741,13 +2741,13 @@
     <t>МсМотя</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>3 ч. 18 мин. 2 сек.</t>
+    <t>3 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -2756,7 +2756,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 22 сек.</t>
+    <t>5 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>318–319</t>
@@ -2810,13 +2810,13 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 8 сек.</t>
+    <t>6 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>shicotus</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 38 сек.</t>
+    <t>7 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>Cybernetix</t>
@@ -2828,7 +2828,7 @@
     <t>KamaZ</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 4 сек.</t>
+    <t>3 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>328–330</t>
@@ -2858,7 +2858,7 @@
     <t>MaxWolf</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 54 сек.</t>
+    <t>7 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>332–333</t>
@@ -2873,7 +2873,7 @@
     <t>Sandi</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 13 сек.</t>
+    <t>4 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>334</t>
@@ -2900,13 +2900,13 @@
     <t>малюк</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 7 сек.</t>
+    <t>6 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>Я_Олег</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>338–339</t>
@@ -2918,7 +2918,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 9 сек.</t>
+    <t>4 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>340</t>
@@ -2957,7 +2957,7 @@
     <t>m19ix1ex</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 3 сек.</t>
+    <t>5 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -2966,7 +2966,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 48 сек.</t>
+    <t>4 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>346–349</t>
@@ -2981,7 +2981,7 @@
     <t>kisa86</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 7 сек.</t>
+    <t>4 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>Defaul</t>
@@ -3008,7 +3008,7 @@
     <t>DerBesondereEin</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 0 сек.</t>
+    <t>5 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>TuaDop</t>
@@ -3026,7 +3026,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 50 сек.</t>
+    <t>6 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3035,7 +3035,7 @@
     <t>noktdchd</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 16 сек.</t>
+    <t>4 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3044,7 +3044,7 @@
     <t>Кнопочник</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 34 сек.</t>
+    <t>6 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>357–358</t>
@@ -3053,7 +3053,7 @@
     <t>trat</t>
   </si>
   <si>
-    <t>6 ч. 45 мин. 2 сек.</t>
+    <t>6 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>prestidigitator</t>
@@ -3077,7 +3077,7 @@
     <t>anomura</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3104,13 +3104,13 @@
     <t>Sunshine_k</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 15 сек.</t>
+    <t>5 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>365–366</t>
@@ -3143,7 +3143,7 @@
     <t>Radimir</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 27 сек.</t>
+    <t>7 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>Follow_Me</t>
@@ -3161,7 +3161,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 16 сек.</t>
+    <t>4 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>372–374</t>
@@ -3206,7 +3206,7 @@
     <t>Yurilla</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 8 сек.</t>
+    <t>4 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>378–381</t>
@@ -3227,13 +3227,13 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 36 сек.</t>
+    <t>3 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 2 сек.</t>
+    <t>6 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>382</t>
@@ -3257,7 +3257,7 @@
     <t>a1987zz</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 6 сек.</t>
+    <t>4 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>Димас</t>
@@ -3281,7 +3281,7 @@
     <t>saull</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 14 сек.</t>
+    <t>5 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>388</t>
@@ -3305,7 +3305,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 49 сек.</t>
+    <t>6 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>391–393</t>
@@ -3326,7 +3326,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 7 сек.</t>
+    <t>2 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3335,7 +3335,7 @@
     <t>fast_turtle</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 35 сек.</t>
+    <t>4 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>395–397</t>
@@ -3344,19 +3344,19 @@
     <t>Filosof03</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>чебупеля</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 2 сек.</t>
+    <t>6 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>annafil</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 33 сек.</t>
+    <t>3 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3389,7 +3389,7 @@
     <t>Remergy</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 0 сек.</t>
+    <t>4 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Silly_Sergio</t>
@@ -3413,13 +3413,13 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 2 сек.</t>
+    <t>3 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>baffuta</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 13 сек.</t>
+    <t>5 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>траляля</t>
@@ -3431,7 +3431,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 9 сек.</t>
+    <t>2 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -3467,7 +3467,7 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 6 сек.</t>
+    <t>5 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3476,7 +3476,7 @@
     <t>Irina2305</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 29 сек.</t>
+    <t>10 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>414–415</t>
@@ -3500,7 +3500,7 @@
     <t>kacegale</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 7 сек.</t>
+    <t>3 ч. 11 мин. 07 сек.</t>
   </si>
   <si>
     <t>vetal777</t>
@@ -3512,7 +3512,7 @@
     <t>Элена</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 51 сек.</t>
+    <t>4 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>Z-Buffer</t>
@@ -3527,7 +3527,7 @@
     <t>Гавик</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>ЦАРЬ</t>
@@ -3608,19 +3608,19 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 5 сек.</t>
+    <t>3 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>петрови4</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 1 сек.</t>
+    <t>5 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>AlmaKira</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>435–437</t>
@@ -3629,7 +3629,7 @@
     <t>Berg4ns</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>proximo39</t>
@@ -3641,7 +3641,7 @@
     <t>Nastena_N</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 51 сек.</t>
+    <t>4 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>438–439</t>
@@ -3656,7 +3656,7 @@
     <t>Таис</t>
   </si>
   <si>
-    <t>5 ч. 38 мин. 9 сек.</t>
+    <t>5 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>440–441</t>
@@ -3749,7 +3749,7 @@
     <t>рыжий_ап</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 3 сек.</t>
+    <t>2 ч. 16 мин. 03 сек.</t>
   </si>
   <si>
     <t>Terravita</t>
@@ -3797,7 +3797,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 49 сек.</t>
+    <t>6 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>Lena-51</t>
@@ -3863,7 +3863,7 @@
     <t>Денис3аыпп</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 35 сек.</t>
+    <t>5 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>469–471</t>
@@ -3926,7 +3926,7 @@
     <t>grebenkov</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 38 сек.</t>
+    <t>4 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>478–479</t>
@@ -3941,7 +3941,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -3965,7 +3965,7 @@
     <t>Chernyshev</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>483–486</t>
@@ -4001,7 +4001,7 @@
     <t>Fyurik</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 56 сек.</t>
+    <t>4 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>старчок</t>
@@ -4049,13 +4049,13 @@
     <t>ASAP_Roman</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 23 сек.</t>
+    <t>3 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>АдамБожевич</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4082,7 +4082,7 @@
     <t>МЕДВЕДКО15</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 2 сек.</t>
+    <t>4 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>500–502</t>
@@ -4091,7 +4091,7 @@
     <t>eyflor</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>Алеся89</t>
@@ -4103,7 +4103,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 8 сек.</t>
+    <t>2 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>503–506</t>
@@ -4112,13 +4112,13 @@
     <t>tamapetyshko</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 2 сек.</t>
+    <t>1 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>Александр431</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 47 сек.</t>
+    <t>2 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>4uva4ok</t>
@@ -4139,7 +4139,7 @@
     <t>0001111</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 5 сек.</t>
+    <t>6 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>HubDubYa</t>
@@ -4157,7 +4157,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 6 сек.</t>
+    <t>5 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>Савраска</t>
@@ -4199,7 +4199,7 @@
     <t>Bimbula</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 47 сек.</t>
+    <t>2 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>517–520</t>
@@ -4208,13 +4208,13 @@
     <t>Hitchhiker</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 7 сек.</t>
+    <t>1 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>Black-Light</t>
@@ -4226,7 +4226,7 @@
     <t>niceflower</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 25 сек.</t>
+    <t>4 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>521–527</t>
@@ -4241,7 +4241,7 @@
     <t>mantilet</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 32 сек.</t>
+    <t>5 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>бэтман</t>
@@ -4280,7 +4280,7 @@
     <t>Sensei777</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 37 сек.</t>
+    <t>4 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>Pepsicaban</t>
@@ -4319,7 +4319,7 @@
     <t>greenSnake</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 41 сек.</t>
+    <t>5 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>Udjer</t>
@@ -4334,19 +4334,19 @@
     <t>zolo305</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 21 сек.</t>
+    <t>3 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>aGm</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>judi</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 3 сек.</t>
+    <t>3 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>ReadySteadyGo_</t>
@@ -4412,7 +4412,7 @@
     <t>Sev4ik</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 5 сек.</t>
+    <t>1 ч. 41 мин. 05 сек.</t>
   </si>
 </sst>
 </file>
